--- a/scene_cat_exp_2023.2.2_english/input_files/48_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/48_scenecat_block_order.xlsx
@@ -370,24 +370,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>living_rooms_2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>bedrooms_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>kitchens_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>bedrooms_2</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>living_rooms_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -411,16 +411,16 @@
     </row>
     <row r="3">
       <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -434,10 +434,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -466,12 +466,12 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -494,19 +494,19 @@
         <v>0</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
